--- a/INPUT/DATA_IN_BAZ.xlsx
+++ b/INPUT/DATA_IN_BAZ.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/Documents/Work/Facette_36Cl/Facet_Crep/INPUT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/Documents/Work/Facette_36Cl/Facet_36Cl_CREp/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094121EC-0399-DD41-BF76-D0840D0797EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E8AA8-798E-D74F-A215-0332D0FB2EA6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37100" yWindow="-3640" windowWidth="27840" windowHeight="11060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
     <sheet name="Parameters" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -235,45 +235,6 @@
     <t>Psi_mu_0</t>
   </si>
   <si>
-    <t>P Cl36 Ca</t>
-  </si>
-  <si>
-    <t>P Cl36 K</t>
-  </si>
-  <si>
-    <t>P Cl36 Ti</t>
-  </si>
-  <si>
-    <t>P Cl36 Fe</t>
-  </si>
-  <si>
-    <t>P Cl36 Ca error</t>
-  </si>
-  <si>
-    <t>P Cl36 K error</t>
-  </si>
-  <si>
-    <t>P Cl36 Ti error</t>
-  </si>
-  <si>
-    <t>P Cl36 Fe error</t>
-  </si>
-  <si>
-    <t>Scaling Scheme</t>
-  </si>
-  <si>
-    <t>Geomagnetic database</t>
-  </si>
-  <si>
-    <t>Atmospheric model</t>
-  </si>
-  <si>
-    <t>0: ERA40 (Uppala et al. 2005), 1: standard atmosphere equation (NOAA 1976)</t>
-  </si>
-  <si>
-    <t>Age max</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (yr)  maximum age to compute 36Cl produced in sample</t>
   </si>
   <si>
@@ -325,12 +286,6 @@
     <t>(at of Cl36 /g of Ti per yr) uncertainty on spallation production rate for Ti, SLHL</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1: Mush; 2: GLOPIS; 3: LSD;</t>
-  </si>
-  <si>
-    <t>1: LAL-STONE with cutoff rigidity, 2: LSD, 3: LAL-STONE 2000 no cutoff</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (mm/yr) Inversion minimum slip-rate bound</t>
   </si>
   <si>
@@ -406,22 +361,68 @@
     <t>( &gt;=0 and &lt;1) Proportion of the chain removed, must be &gt;= 0 and &lt;100</t>
   </si>
   <si>
-    <t>Burnin period</t>
-  </si>
-  <si>
     <t>n_plot</t>
   </si>
   <si>
     <t>number of samples randomly picked to draw 36Cl concentrations from the inversion chain</t>
+  </si>
+  <si>
+    <t>Geomag</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Atm</t>
+  </si>
+  <si>
+    <t>Scaling schme (1: LAL-STONE with cutoff rigidity, 2: LSD, 3: LAL-STONE 2000 no cutoff)</t>
+  </si>
+  <si>
+    <t>Geomagnetic database (1: Mush; 2: GLOPIS; 3: LSD)</t>
+  </si>
+  <si>
+    <t>Atmospheric model (0: ERA40 (Uppala et al. 2005), 1: standard atmosphere equation (NOAA 1976))</t>
+  </si>
+  <si>
+    <t>P_Cl36_Ca</t>
+  </si>
+  <si>
+    <t>P_Cl36_K</t>
+  </si>
+  <si>
+    <t>P_Cl36_Ti</t>
+  </si>
+  <si>
+    <t>P_Cl36_Fe</t>
+  </si>
+  <si>
+    <t>P_Cl36_Ca_error</t>
+  </si>
+  <si>
+    <t>P_Cl36_K_error</t>
+  </si>
+  <si>
+    <t>P_Cl36_Ti_error</t>
+  </si>
+  <si>
+    <t>P_Cl36_Fe_error</t>
+  </si>
+  <si>
+    <t>Age_max</t>
+  </si>
+  <si>
+    <t>N_burnin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -481,7 +482,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,6 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,7 +980,7 @@
   <dimension ref="A1:BY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD9"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,12 +1252,13 @@
       <c r="S2" s="18">
         <v>0.38950000000000023</v>
       </c>
-      <c r="T2" s="18">
-        <v>54.521458333333335</v>
+      <c r="T2" s="42">
+        <f>392246.338278751*1.3994*0.0001</f>
+        <v>54.890952578728417</v>
       </c>
       <c r="U2" s="19">
         <f>0.1*T2</f>
-        <v>5.4521458333333337</v>
+        <v>5.489095257872842</v>
       </c>
       <c r="V2" s="20">
         <v>0</v>
@@ -1379,7 +1388,7 @@
         <v>13.448880000000001</v>
       </c>
       <c r="D3" s="16">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
@@ -1428,12 +1437,13 @@
       <c r="S3" s="18">
         <v>0.38950000000000023</v>
       </c>
-      <c r="T3" s="18">
-        <v>54.521458333333335</v>
+      <c r="T3" s="42">
+        <f>399563.141036486*1.3994*0.0001</f>
+        <v>55.914865956645855</v>
       </c>
       <c r="U3" s="19">
         <f>0.1*T3</f>
-        <v>5.4521458333333337</v>
+        <v>5.5914865956645858</v>
       </c>
       <c r="V3" s="20">
         <v>0</v>
@@ -1563,7 +1573,7 @@
         <v>13.44941</v>
       </c>
       <c r="D4" s="17">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
@@ -1612,12 +1622,13 @@
       <c r="S4" s="18">
         <v>0.38950000000000023</v>
       </c>
-      <c r="T4" s="18">
-        <v>54.521458333333335</v>
+      <c r="T4" s="42">
+        <f>358345.171827215*1.3994*0.0001</f>
+        <v>50.146823345500472</v>
       </c>
       <c r="U4" s="19">
         <f>0.1*T4</f>
-        <v>5.4521458333333337</v>
+        <v>5.0146823345500477</v>
       </c>
       <c r="V4" s="20">
         <v>0</v>
@@ -1738,6 +1749,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1745,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C226010C-3229-414E-B3FA-2CD5555C7F40}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1873,7 +1885,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1890,7 +1902,7 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1907,7 +1919,7 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1924,7 +1936,7 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1934,14 +1946,14 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B13" s="35">
         <v>42.2</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -1951,14 +1963,14 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B14" s="36">
         <v>148.1</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
@@ -1968,14 +1980,14 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B15" s="36">
         <v>13</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="36" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -1985,14 +1997,14 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B16" s="37">
         <v>1.9</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -2002,14 +2014,14 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B17" s="35">
         <v>4.8</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -2019,14 +2031,14 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B18" s="36">
         <v>7.8</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -2036,14 +2048,14 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B19" s="36">
         <v>3</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="36" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
@@ -2053,14 +2065,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B20" s="36">
         <v>0.2</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="36" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
@@ -2070,14 +2082,14 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B21" s="35">
         <v>1</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -2087,14 +2099,14 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B22" s="36">
         <v>3</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
@@ -2104,14 +2116,14 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B23" s="36">
         <v>0</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
@@ -2135,14 +2147,14 @@
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B26" s="13">
         <v>300000</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -2152,14 +2164,14 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B27" s="35">
         <v>20000</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -2169,14 +2181,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B28" s="40">
         <v>1</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -2186,14 +2198,14 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B29" s="38">
         <v>0</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -2203,14 +2215,14 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B30" s="39">
         <v>5</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
@@ -2220,14 +2232,14 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B31" s="39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="36" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -2237,14 +2249,14 @@
     </row>
     <row r="32" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B32" s="35">
         <v>5000</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="35" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
@@ -2254,14 +2266,14 @@
     </row>
     <row r="33" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B33" s="13">
         <v>30000</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -2271,14 +2283,14 @@
     </row>
     <row r="34" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B34" s="13">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="36" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -2288,14 +2300,14 @@
     </row>
     <row r="35" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B35" s="35">
         <v>10</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
@@ -2305,14 +2317,14 @@
     </row>
     <row r="36" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B36" s="13">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -2322,14 +2334,14 @@
     </row>
     <row r="37" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B37" s="41">
         <v>1</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -2339,14 +2351,14 @@
     </row>
     <row r="38" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B38" s="41">
         <v>0.2</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -2356,14 +2368,14 @@
     </row>
     <row r="39" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B39" s="41">
         <v>1000</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -2374,7 +2386,7 @@
     <row r="40" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:9" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2387,14 +2399,14 @@
     </row>
     <row r="42" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B42" s="35">
         <v>0</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="35" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
@@ -2404,14 +2416,14 @@
     </row>
     <row r="43" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B43" s="13">
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -2421,14 +2433,14 @@
     </row>
     <row r="44" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B44" s="41">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
